--- a/NUnitAutomationTestingProgram/SampleTests/Excel/Test Multiple Test Step.xlsx
+++ b/NUnitAutomationTestingProgram/SampleTests/Excel/Test Multiple Test Step.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DuongCh\Projects\SeleniumFramework\NUnitAutomationTestingProgram\SampleTests\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155E641A-1B82-4886-AFF6-B8B497760A0E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664E5996-68D2-4AD8-864F-D956F097F2B9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{8D1508E1-AE38-4628-9F19-71503E8C0CED}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>URL</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Card Name/xpath</t>
   </si>
   <si>
-    <t>Verify WebElement Availability</t>
-  </si>
-  <si>
     <t>User 1</t>
   </si>
   <si>
@@ -54,9 +51,6 @@
     <t>ClickElementByXPath</t>
   </si>
   <si>
-    <t>//a[contains(text(),'Form Authentication')]</t>
-  </si>
-  <si>
     <t>PopulateElementByXPath</t>
   </si>
   <si>
@@ -75,13 +69,10 @@
     <t>//button[@class='radius']</t>
   </si>
   <si>
-    <t>//a[@class='button secondary radius']</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>write</t>
+    <t>//a[contains(text(),'Form Authentication')]</t>
+  </si>
+  <si>
+    <t>//a[@class='button secondary radius']</t>
   </si>
 </sst>
 </file>
@@ -476,7 +467,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D5" sqref="D5:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -499,73 +490,62 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
+      <c r="B7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
